--- a/data/processed/Excels/X_train_sel_k5.xlsx
+++ b/data/processed/Excels/X_train_sel_k5.xlsx
@@ -468,7 +468,7 @@
         <v>84</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="D2" t="n">
         <v>0.304</v>
@@ -488,7 +488,7 @@
         <v>28.2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.282</v>
+        <v>1.2</v>
       </c>
       <c r="E3" t="n">
         <v>50</v>
@@ -791,7 +791,7 @@
         <v>123</v>
       </c>
       <c r="C21" t="n">
-        <v>57.3</v>
+        <v>50.55</v>
       </c>
       <c r="D21" t="n">
         <v>0.88</v>
@@ -981,7 +981,7 @@
         <v>43.3</v>
       </c>
       <c r="D32" t="n">
-        <v>1.224</v>
+        <v>1.2</v>
       </c>
       <c r="E32" t="n">
         <v>31</v>
@@ -1182,7 +1182,7 @@
         <v>102</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="D44" t="n">
         <v>0.572</v>
@@ -1304,7 +1304,7 @@
         <v>27.7</v>
       </c>
       <c r="D51" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="E51" t="n">
         <v>25</v>
@@ -1522,7 +1522,7 @@
         <v>165</v>
       </c>
       <c r="C64" t="n">
-        <v>52.3</v>
+        <v>50.55</v>
       </c>
       <c r="D64" t="n">
         <v>0.427</v>
@@ -1865,7 +1865,7 @@
         <v>28.5</v>
       </c>
       <c r="D84" t="n">
-        <v>1.699</v>
+        <v>1.2</v>
       </c>
       <c r="E84" t="n">
         <v>25</v>
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>37.125</v>
       </c>
       <c r="C99" t="n">
         <v>27.7</v>
@@ -2735,7 +2735,7 @@
         <v>0.235</v>
       </c>
       <c r="E135" t="n">
-        <v>70</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="136">
@@ -2814,7 +2814,7 @@
         <v>129</v>
       </c>
       <c r="C140" t="n">
-        <v>67.09999999999999</v>
+        <v>50.55</v>
       </c>
       <c r="D140" t="n">
         <v>0.319</v>
@@ -3049,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>37.125</v>
       </c>
       <c r="C154" t="n">
         <v>32</v>
@@ -3075,7 +3075,7 @@
         <v>0.832</v>
       </c>
       <c r="E155" t="n">
-        <v>72</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="156">
@@ -3086,7 +3086,7 @@
         <v>94</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="D156" t="n">
         <v>0.256</v>
@@ -3103,7 +3103,7 @@
         <v>125</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="D157" t="n">
         <v>0.232</v>
@@ -3341,7 +3341,7 @@
         <v>114</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="D171" t="n">
         <v>0.189</v>
@@ -3440,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>37.125</v>
       </c>
       <c r="C177" t="n">
         <v>24.7</v>
@@ -3573,7 +3573,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="B185" t="n">
         <v>136</v>
@@ -3630,7 +3630,7 @@
         <v>88</v>
       </c>
       <c r="C188" t="n">
-        <v>55</v>
+        <v>50.55</v>
       </c>
       <c r="D188" t="n">
         <v>0.496</v>
@@ -3837,7 +3837,7 @@
         <v>36.7</v>
       </c>
       <c r="D200" t="n">
-        <v>2.329</v>
+        <v>1.2</v>
       </c>
       <c r="E200" t="n">
         <v>31</v>
@@ -4137,7 +4137,7 @@
         <v>5</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>37.125</v>
       </c>
       <c r="C218" t="n">
         <v>41</v>
@@ -4157,10 +4157,10 @@
         <v>118</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="D219" t="n">
-        <v>1.731</v>
+        <v>1.2</v>
       </c>
       <c r="E219" t="n">
         <v>21</v>
@@ -4330,7 +4330,7 @@
         <v>39</v>
       </c>
       <c r="D229" t="n">
-        <v>1.222</v>
+        <v>1.2</v>
       </c>
       <c r="E229" t="n">
         <v>33</v>
@@ -4344,10 +4344,10 @@
         <v>180</v>
       </c>
       <c r="C230" t="n">
-        <v>59.4</v>
+        <v>50.55</v>
       </c>
       <c r="D230" t="n">
-        <v>2.42</v>
+        <v>1.2</v>
       </c>
       <c r="E230" t="n">
         <v>25</v>
@@ -4588,7 +4588,7 @@
         <v>0.587</v>
       </c>
       <c r="E244" t="n">
-        <v>68</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="245">
@@ -4925,7 +4925,7 @@
         <v>27.1</v>
       </c>
       <c r="D264" t="n">
-        <v>1.441</v>
+        <v>1.2</v>
       </c>
       <c r="E264" t="n">
         <v>57</v>
@@ -5095,7 +5095,7 @@
         <v>30</v>
       </c>
       <c r="D274" t="n">
-        <v>1.213</v>
+        <v>1.2</v>
       </c>
       <c r="E274" t="n">
         <v>49</v>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="B275" t="n">
         <v>100</v>
@@ -5554,7 +5554,7 @@
         <v>40.8</v>
       </c>
       <c r="D301" t="n">
-        <v>1.461</v>
+        <v>1.2</v>
       </c>
       <c r="E301" t="n">
         <v>45</v>
@@ -5761,7 +5761,7 @@
         <v>0.735</v>
       </c>
       <c r="E313" t="n">
-        <v>67</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="314">
@@ -5843,7 +5843,7 @@
         <v>42</v>
       </c>
       <c r="D318" t="n">
-        <v>1.893</v>
+        <v>1.2</v>
       </c>
       <c r="E318" t="n">
         <v>25</v>
@@ -5996,7 +5996,7 @@
         <v>24.2</v>
       </c>
       <c r="D327" t="n">
-        <v>1.698</v>
+        <v>1.2</v>
       </c>
       <c r="E327" t="n">
         <v>28</v>
@@ -6421,7 +6421,7 @@
         <v>38.4</v>
       </c>
       <c r="D352" t="n">
-        <v>2.137</v>
+        <v>1.2</v>
       </c>
       <c r="E352" t="n">
         <v>25</v>
@@ -7081,7 +7081,7 @@
         <v>115</v>
       </c>
       <c r="C391" t="n">
-        <v>52.9</v>
+        <v>50.55</v>
       </c>
       <c r="D391" t="n">
         <v>0.209</v>
@@ -7234,13 +7234,13 @@
         <v>136</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="D400" t="n">
         <v>0.64</v>
       </c>
       <c r="E400" t="n">
-        <v>69</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="401">
@@ -7288,7 +7288,7 @@
         <v>30.5</v>
       </c>
       <c r="D403" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="E403" t="n">
         <v>34</v>
@@ -7444,7 +7444,7 @@
         <v>0.186</v>
       </c>
       <c r="E412" t="n">
-        <v>69</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="413">
@@ -8469,7 +8469,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="B473" t="n">
         <v>163</v>
@@ -8818,7 +8818,7 @@
         <v>43.1</v>
       </c>
       <c r="D493" t="n">
-        <v>2.288</v>
+        <v>1.2</v>
       </c>
       <c r="E493" t="n">
         <v>33</v>
@@ -8948,7 +8948,7 @@
         <v>6</v>
       </c>
       <c r="B501" t="n">
-        <v>0</v>
+        <v>37.125</v>
       </c>
       <c r="C501" t="n">
         <v>39</v>
@@ -9093,7 +9093,7 @@
         <v>0.551</v>
       </c>
       <c r="E509" t="n">
-        <v>67</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="510">
@@ -9430,7 +9430,7 @@
         <v>32</v>
       </c>
       <c r="D529" t="n">
-        <v>1.321</v>
+        <v>1.2</v>
       </c>
       <c r="E529" t="n">
         <v>33</v>
@@ -9540,7 +9540,7 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="B536" t="n">
         <v>175</v>
@@ -10178,7 +10178,7 @@
         <v>27.1</v>
       </c>
       <c r="D573" t="n">
-        <v>1.318</v>
+        <v>1.2</v>
       </c>
       <c r="E573" t="n">
         <v>33</v>
@@ -10331,7 +10331,7 @@
         <v>40.5</v>
       </c>
       <c r="D582" t="n">
-        <v>1.781</v>
+        <v>1.2</v>
       </c>
       <c r="E582" t="n">
         <v>44</v>
@@ -10436,7 +10436,7 @@
         <v>0.46</v>
       </c>
       <c r="E588" t="n">
-        <v>81</v>
+        <v>66.5</v>
       </c>
     </row>
     <row r="589">
@@ -10569,7 +10569,7 @@
         <v>30.5</v>
       </c>
       <c r="D596" t="n">
-        <v>1.391</v>
+        <v>1.2</v>
       </c>
       <c r="E596" t="n">
         <v>25</v>
@@ -10586,7 +10586,7 @@
         <v>42.9</v>
       </c>
       <c r="D597" t="n">
-        <v>1.394</v>
+        <v>1.2</v>
       </c>
       <c r="E597" t="n">
         <v>22</v>
@@ -10705,7 +10705,7 @@
         <v>23.1</v>
       </c>
       <c r="D604" t="n">
-        <v>1.476</v>
+        <v>1.2</v>
       </c>
       <c r="E604" t="n">
         <v>46</v>
